--- a/data/depot/Spending Drivers - Medicaid - Outcomes.xlsx
+++ b/data/depot/Spending Drivers - Medicaid - Outcomes.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="State Health Measures" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -679,1238 +676,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Combined State Data"/>
-      <sheetName val="State Data - Additional"/>
-      <sheetName val="State Data"/>
-      <sheetName val="Pivot - State Measures"/>
-      <sheetName val="Pivot - Additional State Mea."/>
-      <sheetName val="Introduction"/>
-      <sheetName val="Outcomes &amp; Factors Rankings"/>
-      <sheetName val="Outcomes &amp; Factors SubRankings"/>
-      <sheetName val="Ranked Measure Data"/>
-      <sheetName val="Ranked Measure Sources &amp; Years"/>
-      <sheetName val="Additional Measure Data"/>
-      <sheetName val="Addtl Measure Sources &amp; Years"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>8.1551146410574837</v>
-          </cell>
-          <cell r="D2">
-            <v>39791617</v>
-          </cell>
-          <cell r="E2">
-            <v>5763240</v>
-          </cell>
-          <cell r="F2">
-            <v>858898</v>
-          </cell>
-          <cell r="G2">
-            <v>22147552</v>
-          </cell>
-          <cell r="H2">
-            <v>45943530</v>
-          </cell>
-          <cell r="I2">
-            <v>17449233.72432097</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>10.296384812560817</v>
-          </cell>
-          <cell r="D3">
-            <v>589238</v>
-          </cell>
-          <cell r="E3">
-            <v>50583</v>
-          </cell>
-          <cell r="F3">
-            <v>11408</v>
-          </cell>
-          <cell r="G3">
-            <v>457149</v>
-          </cell>
-          <cell r="H3">
-            <v>804990</v>
-          </cell>
-          <cell r="I3">
-            <v>367290.19932767906</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>5.8464458379820208</v>
-          </cell>
-          <cell r="D4">
-            <v>122643</v>
-          </cell>
-          <cell r="E4">
-            <v>26407</v>
-          </cell>
-          <cell r="F4">
-            <v>589</v>
-          </cell>
-          <cell r="G4">
-            <v>35241</v>
-          </cell>
-          <cell r="H4">
-            <v>95360</v>
-          </cell>
-          <cell r="I4">
-            <v>59540.92870095851</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>7.0569930517072335</v>
-          </cell>
-          <cell r="D5">
-            <v>900760</v>
-          </cell>
-          <cell r="E5">
-            <v>230744</v>
-          </cell>
-          <cell r="F5">
-            <v>12441</v>
-          </cell>
-          <cell r="G5">
-            <v>416189</v>
-          </cell>
-          <cell r="H5">
-            <v>1049830</v>
-          </cell>
-          <cell r="I5">
-            <v>416946.10464680003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>9.0076527862609126</v>
-          </cell>
-          <cell r="D6">
-            <v>429671</v>
-          </cell>
-          <cell r="E6">
-            <v>47489</v>
-          </cell>
-          <cell r="F6">
-            <v>4624</v>
-          </cell>
-          <cell r="G6">
-            <v>252056</v>
-          </cell>
-          <cell r="H6">
-            <v>541860</v>
-          </cell>
-          <cell r="I6">
-            <v>245604.34385391994</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>6.7951913524294429</v>
-          </cell>
-          <cell r="D7">
-            <v>5865533</v>
-          </cell>
-          <cell r="E7">
-            <v>807210</v>
-          </cell>
-          <cell r="F7">
-            <v>111204</v>
-          </cell>
-          <cell r="G7">
-            <v>2211469</v>
-          </cell>
-          <cell r="H7">
-            <v>5687150</v>
-          </cell>
-          <cell r="I7">
-            <v>1164227.5224687003</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>8.8475222737029586</v>
-          </cell>
-          <cell r="D8">
-            <v>635877</v>
-          </cell>
-          <cell r="E8">
-            <v>121168</v>
-          </cell>
-          <cell r="F8">
-            <v>10880</v>
-          </cell>
-          <cell r="G8">
-            <v>231785</v>
-          </cell>
-          <cell r="H8">
-            <v>721020</v>
-          </cell>
-          <cell r="I8">
-            <v>290873.76712209795</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>7.9825374016178801</v>
-          </cell>
-          <cell r="D9">
-            <v>282987</v>
-          </cell>
-          <cell r="E9">
-            <v>34395</v>
-          </cell>
-          <cell r="F9">
-            <v>10728</v>
-          </cell>
-          <cell r="G9">
-            <v>228073</v>
-          </cell>
-          <cell r="H9">
-            <v>459820</v>
-          </cell>
-          <cell r="I9">
-            <v>139156.54777880001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>8.7575999508690057</v>
-          </cell>
-          <cell r="D10">
-            <v>71447</v>
-          </cell>
-          <cell r="E10">
-            <v>7265</v>
-          </cell>
-          <cell r="F10">
-            <v>2936</v>
-          </cell>
-          <cell r="G10">
-            <v>65866</v>
-          </cell>
-          <cell r="H10">
-            <v>106610</v>
-          </cell>
-          <cell r="I10">
-            <v>52510.089390700006</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>10.503140683690541</v>
-          </cell>
-          <cell r="D11">
-            <v>34808</v>
-          </cell>
-          <cell r="E11">
-            <v>2300</v>
-          </cell>
-          <cell r="F11">
-            <v>14359</v>
-          </cell>
-          <cell r="G11">
-            <v>40214</v>
-          </cell>
-          <cell r="H11">
-            <v>91540</v>
-          </cell>
-          <cell r="I11">
-            <v>5764.5843048999996</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>8.6892057296395624</v>
-          </cell>
-          <cell r="D12">
-            <v>3300073</v>
-          </cell>
-          <cell r="E12">
-            <v>475048</v>
-          </cell>
-          <cell r="F12">
-            <v>94306</v>
-          </cell>
-          <cell r="G12">
-            <v>1532619</v>
-          </cell>
-          <cell r="H12">
-            <v>2986720</v>
-          </cell>
-          <cell r="I12">
-            <v>1228210.399793799</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>9.4982364342272678</v>
-          </cell>
-          <cell r="D13">
-            <v>1551768</v>
-          </cell>
-          <cell r="E13">
-            <v>240592</v>
-          </cell>
-          <cell r="F13">
-            <v>33207</v>
-          </cell>
-          <cell r="G13">
-            <v>740505</v>
-          </cell>
-          <cell r="H13">
-            <v>1679580</v>
-          </cell>
-          <cell r="I13">
-            <v>778932.66588510456</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>8.1801953166019103</v>
-          </cell>
-          <cell r="D14">
-            <v>79987</v>
-          </cell>
-          <cell r="E14">
-            <v>12083</v>
-          </cell>
-          <cell r="F14">
-            <v>2161</v>
-          </cell>
-          <cell r="G14">
-            <v>86288</v>
-          </cell>
-          <cell r="H14">
-            <v>180330</v>
-          </cell>
-          <cell r="I14">
-            <v>78570.713674900006</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>6.5359909541452152</v>
-          </cell>
-          <cell r="D15">
-            <v>214339</v>
-          </cell>
-          <cell r="E15">
-            <v>39681</v>
-          </cell>
-          <cell r="F15">
-            <v>728</v>
-          </cell>
-          <cell r="G15">
-            <v>98263</v>
-          </cell>
-          <cell r="H15">
-            <v>235630</v>
-          </cell>
-          <cell r="I15">
-            <v>107604.12652691999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>8.3619985128716987</v>
-          </cell>
-          <cell r="D16">
-            <v>1489797</v>
-          </cell>
-          <cell r="E16">
-            <v>117957</v>
-          </cell>
-          <cell r="F16">
-            <v>31221</v>
-          </cell>
-          <cell r="G16">
-            <v>867792</v>
-          </cell>
-          <cell r="H16">
-            <v>1694940</v>
-          </cell>
-          <cell r="I16">
-            <v>554467.19173016213</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>8.2111534061086928</v>
-          </cell>
-          <cell r="D17">
-            <v>781005</v>
-          </cell>
-          <cell r="E17">
-            <v>142488</v>
-          </cell>
-          <cell r="F17">
-            <v>8422</v>
-          </cell>
-          <cell r="G17">
-            <v>511741</v>
-          </cell>
-          <cell r="H17">
-            <v>981420</v>
-          </cell>
-          <cell r="I17">
-            <v>409497.17824324063</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>6.7620079451065367</v>
-          </cell>
-          <cell r="D18">
-            <v>222529</v>
-          </cell>
-          <cell r="E18">
-            <v>30326</v>
-          </cell>
-          <cell r="F18">
-            <v>1571</v>
-          </cell>
-          <cell r="G18">
-            <v>205408</v>
-          </cell>
-          <cell r="H18">
-            <v>380150</v>
-          </cell>
-          <cell r="I18">
-            <v>178560.30500134197</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>7.1682383729258889</v>
-          </cell>
-          <cell r="D19">
-            <v>300936</v>
-          </cell>
-          <cell r="E19">
-            <v>52766</v>
-          </cell>
-          <cell r="F19">
-            <v>2588</v>
-          </cell>
-          <cell r="G19">
-            <v>197549</v>
-          </cell>
-          <cell r="H19">
-            <v>402040</v>
-          </cell>
-          <cell r="I19">
-            <v>236086.945867303</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>9.0515733828981428</v>
-          </cell>
-          <cell r="D20">
-            <v>537818</v>
-          </cell>
-          <cell r="E20">
-            <v>62468</v>
-          </cell>
-          <cell r="F20">
-            <v>5114</v>
-          </cell>
-          <cell r="G20">
-            <v>380134</v>
-          </cell>
-          <cell r="H20">
-            <v>685130</v>
-          </cell>
-          <cell r="I20">
-            <v>209144.21502764826</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>10.939613245317831</v>
-          </cell>
-          <cell r="D21">
-            <v>698706</v>
-          </cell>
-          <cell r="E21">
-            <v>64331</v>
-          </cell>
-          <cell r="F21">
-            <v>16772</v>
-          </cell>
-          <cell r="G21">
-            <v>400984</v>
-          </cell>
-          <cell r="H21">
-            <v>689440</v>
-          </cell>
-          <cell r="I21">
-            <v>440418.72741358</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>6.5356060929299824</v>
-          </cell>
-          <cell r="D22">
-            <v>121113</v>
-          </cell>
-          <cell r="E22">
-            <v>13323</v>
-          </cell>
-          <cell r="F22">
-            <v>1131</v>
-          </cell>
-          <cell r="G22">
-            <v>99886</v>
-          </cell>
-          <cell r="H22">
-            <v>199400</v>
-          </cell>
-          <cell r="I22">
-            <v>49629.631419630015</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>9.0455948489651679</v>
-          </cell>
-          <cell r="D23">
-            <v>536055</v>
-          </cell>
-          <cell r="E23">
-            <v>58350</v>
-          </cell>
-          <cell r="F23">
-            <v>29937</v>
-          </cell>
-          <cell r="G23">
-            <v>431683</v>
-          </cell>
-          <cell r="H23">
-            <v>696210</v>
-          </cell>
-          <cell r="I23">
-            <v>173287.7057058978</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>7.7576952317642975</v>
-          </cell>
-          <cell r="D24">
-            <v>228987</v>
-          </cell>
-          <cell r="E24">
-            <v>19769</v>
-          </cell>
-          <cell r="F24">
-            <v>17357</v>
-          </cell>
-          <cell r="G24">
-            <v>442565</v>
-          </cell>
-          <cell r="H24">
-            <v>701750</v>
-          </cell>
-          <cell r="I24">
-            <v>264980.81395883998</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>8.4112048401369712</v>
-          </cell>
-          <cell r="D25">
-            <v>1014360</v>
-          </cell>
-          <cell r="E25">
-            <v>100782</v>
-          </cell>
-          <cell r="F25">
-            <v>13850</v>
-          </cell>
-          <cell r="G25">
-            <v>785486</v>
-          </cell>
-          <cell r="H25">
-            <v>1511480</v>
-          </cell>
-          <cell r="I25">
-            <v>566021.57393890317</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>6.5153596214701919</v>
-          </cell>
-          <cell r="D26">
-            <v>353641</v>
-          </cell>
-          <cell r="E26">
-            <v>72237</v>
-          </cell>
-          <cell r="F26">
-            <v>6445</v>
-          </cell>
-          <cell r="G26">
-            <v>295478</v>
-          </cell>
-          <cell r="H26">
-            <v>544720</v>
-          </cell>
-          <cell r="I26">
-            <v>311065.65284398</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>12.053958363312061</v>
-          </cell>
-          <cell r="D27">
-            <v>440433</v>
-          </cell>
-          <cell r="E27">
-            <v>57185</v>
-          </cell>
-          <cell r="F27">
-            <v>8144</v>
-          </cell>
-          <cell r="G27">
-            <v>288397</v>
-          </cell>
-          <cell r="H27">
-            <v>612380</v>
-          </cell>
-          <cell r="I27">
-            <v>292297.64863224007</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>8.0031910273254425</v>
-          </cell>
-          <cell r="D28">
-            <v>694827</v>
-          </cell>
-          <cell r="E28">
-            <v>106459</v>
-          </cell>
-          <cell r="F28">
-            <v>10931</v>
-          </cell>
-          <cell r="G28">
-            <v>469529</v>
-          </cell>
-          <cell r="H28">
-            <v>949140</v>
-          </cell>
-          <cell r="I28">
-            <v>372038.68468155188</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>7.2880777959385243</v>
-          </cell>
-          <cell r="D29">
-            <v>153913</v>
-          </cell>
-          <cell r="E29">
-            <v>27408</v>
-          </cell>
-          <cell r="F29">
-            <v>306</v>
-          </cell>
-          <cell r="G29">
-            <v>56981</v>
-          </cell>
-          <cell r="H29">
-            <v>136870</v>
-          </cell>
-          <cell r="I29">
-            <v>88724.788289530014</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>6.9793913251857171</v>
-          </cell>
-          <cell r="D30">
-            <v>172409</v>
-          </cell>
-          <cell r="E30">
-            <v>30816</v>
-          </cell>
-          <cell r="F30">
-            <v>1625</v>
-          </cell>
-          <cell r="G30">
-            <v>113113</v>
-          </cell>
-          <cell r="H30">
-            <v>227110</v>
-          </cell>
-          <cell r="I30">
-            <v>119055.41080689503</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>8.166393532588744</v>
-          </cell>
-          <cell r="D31">
-            <v>475714</v>
-          </cell>
-          <cell r="E31">
-            <v>114866</v>
-          </cell>
-          <cell r="F31">
-            <v>6838</v>
-          </cell>
-          <cell r="G31">
-            <v>167398</v>
-          </cell>
-          <cell r="H31">
-            <v>416250</v>
-          </cell>
-          <cell r="I31">
-            <v>95123.034090367</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>6.8256139525936694</v>
-          </cell>
-          <cell r="D32">
-            <v>126998</v>
-          </cell>
-          <cell r="E32">
-            <v>12403</v>
-          </cell>
-          <cell r="F32">
-            <v>1127</v>
-          </cell>
-          <cell r="G32">
-            <v>90181</v>
-          </cell>
-          <cell r="H32">
-            <v>131540</v>
-          </cell>
-          <cell r="I32">
-            <v>55080.604327584006</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>8.4000716258018961</v>
-          </cell>
-          <cell r="D33">
-            <v>988974</v>
-          </cell>
-          <cell r="E33">
-            <v>113856</v>
-          </cell>
-          <cell r="F33">
-            <v>35377</v>
-          </cell>
-          <cell r="G33">
-            <v>590654</v>
-          </cell>
-          <cell r="H33">
-            <v>1094600</v>
-          </cell>
-          <cell r="I33">
-            <v>321812.44836938998</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>8.6848943453785736</v>
-          </cell>
-          <cell r="D34">
-            <v>337120</v>
-          </cell>
-          <cell r="E34">
-            <v>46561</v>
-          </cell>
-          <cell r="F34">
-            <v>2384</v>
-          </cell>
-          <cell r="G34">
-            <v>118188</v>
-          </cell>
-          <cell r="H34">
-            <v>338230</v>
-          </cell>
-          <cell r="I34">
-            <v>271207.72802096995</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>8.16037364388486</v>
-          </cell>
-          <cell r="D35">
-            <v>1909699</v>
-          </cell>
-          <cell r="E35">
-            <v>185233</v>
-          </cell>
-          <cell r="F35">
-            <v>129587</v>
-          </cell>
-          <cell r="G35">
-            <v>1370197</v>
-          </cell>
-          <cell r="H35">
-            <v>2605680</v>
-          </cell>
-          <cell r="I35">
-            <v>481881.20197454188</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>9.0506904679794253</v>
-          </cell>
-          <cell r="D36">
-            <v>1387259</v>
-          </cell>
-          <cell r="E36">
-            <v>187605</v>
-          </cell>
-          <cell r="F36">
-            <v>24270</v>
-          </cell>
-          <cell r="G36">
-            <v>757882</v>
-          </cell>
-          <cell r="H36">
-            <v>1670830</v>
-          </cell>
-          <cell r="I36">
-            <v>622382.10630326613</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>6.5933005116323971</v>
-          </cell>
-          <cell r="D37">
-            <v>59448</v>
-          </cell>
-          <cell r="E37">
-            <v>11652</v>
-          </cell>
-          <cell r="F37">
-            <v>0</v>
-          </cell>
-          <cell r="G37">
-            <v>42887</v>
-          </cell>
-          <cell r="H37">
-            <v>53160</v>
-          </cell>
-          <cell r="I37">
-            <v>60359.895293439993</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>8.6381363815124068</v>
-          </cell>
-          <cell r="D38">
-            <v>1156227</v>
-          </cell>
-          <cell r="E38">
-            <v>154867</v>
-          </cell>
-          <cell r="F38">
-            <v>17010</v>
-          </cell>
-          <cell r="G38">
-            <v>956540</v>
-          </cell>
-          <cell r="H38">
-            <v>1825610</v>
-          </cell>
-          <cell r="I38">
-            <v>681167.85500171687</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>8.2853931449737868</v>
-          </cell>
-          <cell r="D39">
-            <v>589955</v>
-          </cell>
-          <cell r="E39">
-            <v>104152</v>
-          </cell>
-          <cell r="F39">
-            <v>4613</v>
-          </cell>
-          <cell r="G39">
-            <v>315576</v>
-          </cell>
-          <cell r="H39">
-            <v>606850</v>
-          </cell>
-          <cell r="I39">
-            <v>335906.28719210596</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>6.1497358637044588</v>
-          </cell>
-          <cell r="D40">
-            <v>511284</v>
-          </cell>
-          <cell r="E40">
-            <v>61160</v>
-          </cell>
-          <cell r="F40">
-            <v>5091</v>
-          </cell>
-          <cell r="G40">
-            <v>253446</v>
-          </cell>
-          <cell r="H40">
-            <v>582680</v>
-          </cell>
-          <cell r="I40">
-            <v>195215.23137047002</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>8.3145906509898388</v>
-          </cell>
-          <cell r="D41">
-            <v>1074244</v>
-          </cell>
-          <cell r="E41">
-            <v>150984</v>
-          </cell>
-          <cell r="F41">
-            <v>31311</v>
-          </cell>
-          <cell r="G41">
-            <v>987259</v>
-          </cell>
-          <cell r="H41">
-            <v>1724330</v>
-          </cell>
-          <cell r="I41">
-            <v>568275.20316947694</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>7.8787356604795429</v>
-          </cell>
-          <cell r="D42">
-            <v>99563</v>
-          </cell>
-          <cell r="E42">
-            <v>12113</v>
-          </cell>
-          <cell r="F42">
-            <v>1950</v>
-          </cell>
-          <cell r="G42">
-            <v>70796</v>
-          </cell>
-          <cell r="H42">
-            <v>157540</v>
-          </cell>
-          <cell r="I42">
-            <v>60179.096152500002</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>9.9251100798746688</v>
-          </cell>
-          <cell r="D43">
-            <v>681907</v>
-          </cell>
-          <cell r="E43">
-            <v>98376</v>
-          </cell>
-          <cell r="F43">
-            <v>13884</v>
-          </cell>
-          <cell r="G43">
-            <v>415634</v>
-          </cell>
-          <cell r="H43">
-            <v>769170</v>
-          </cell>
-          <cell r="I43">
-            <v>360395.69892697805</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>6.5673597127538272</v>
-          </cell>
-          <cell r="D44">
-            <v>81958</v>
-          </cell>
-          <cell r="E44">
-            <v>13359</v>
-          </cell>
-          <cell r="F44">
-            <v>0</v>
-          </cell>
-          <cell r="G44">
-            <v>52029</v>
-          </cell>
-          <cell r="H44">
-            <v>99320</v>
-          </cell>
-          <cell r="I44">
-            <v>86909.830488939988</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>9.2403799743615913</v>
-          </cell>
-          <cell r="D45">
-            <v>794184</v>
-          </cell>
-          <cell r="E45">
-            <v>90386</v>
-          </cell>
-          <cell r="F45">
-            <v>15801</v>
-          </cell>
-          <cell r="G45">
-            <v>568633</v>
-          </cell>
-          <cell r="H45">
-            <v>1017910</v>
-          </cell>
-          <cell r="I45">
-            <v>480355.06404412392</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>8.420484557787649</v>
-          </cell>
-          <cell r="D46">
-            <v>4860358</v>
-          </cell>
-          <cell r="E46">
-            <v>946323</v>
-          </cell>
-          <cell r="F46">
-            <v>64175</v>
-          </cell>
-          <cell r="G46">
-            <v>1682030</v>
-          </cell>
-          <cell r="H46">
-            <v>4405870</v>
-          </cell>
-          <cell r="I46">
-            <v>2339034.4222448575</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>6.8745003996802554</v>
-          </cell>
-          <cell r="D47">
-            <v>312131</v>
-          </cell>
-          <cell r="E47">
-            <v>93575</v>
-          </cell>
-          <cell r="F47">
-            <v>2311</v>
-          </cell>
-          <cell r="G47">
-            <v>129266</v>
-          </cell>
-          <cell r="H47">
-            <v>409130</v>
-          </cell>
-          <cell r="I47">
-            <v>144690.95333083798</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>6.5335131058753628</v>
-          </cell>
-          <cell r="D48">
-            <v>36333</v>
-          </cell>
-          <cell r="E48">
-            <v>4146</v>
-          </cell>
-          <cell r="F48">
-            <v>394</v>
-          </cell>
-          <cell r="G48">
-            <v>36265</v>
-          </cell>
-          <cell r="H48">
-            <v>78480</v>
-          </cell>
-          <cell r="I48">
-            <v>19530.850951073</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>8.2642709345961887</v>
-          </cell>
-          <cell r="D49">
-            <v>878267</v>
-          </cell>
-          <cell r="E49">
-            <v>115183</v>
-          </cell>
-          <cell r="F49">
-            <v>20526</v>
-          </cell>
-          <cell r="G49">
-            <v>587305</v>
-          </cell>
-          <cell r="H49">
-            <v>904040</v>
-          </cell>
-          <cell r="I49">
-            <v>295609.68773008377</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>6.2886671673282546</v>
-          </cell>
-          <cell r="D50">
-            <v>843276</v>
-          </cell>
-          <cell r="E50">
-            <v>100148</v>
-          </cell>
-          <cell r="F50">
-            <v>10635</v>
-          </cell>
-          <cell r="G50">
-            <v>432666</v>
-          </cell>
-          <cell r="H50">
-            <v>970700</v>
-          </cell>
-          <cell r="I50">
-            <v>340445.17690891272</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>9.4163872235206441</v>
-          </cell>
-          <cell r="D51">
-            <v>248168</v>
-          </cell>
-          <cell r="E51">
-            <v>17848</v>
-          </cell>
-          <cell r="F51">
-            <v>1428</v>
-          </cell>
-          <cell r="G51">
-            <v>183606</v>
-          </cell>
-          <cell r="H51">
-            <v>267820</v>
-          </cell>
-          <cell r="I51">
-            <v>116767.19060761074</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>7.0503374555283269</v>
-          </cell>
-          <cell r="D52">
-            <v>440275</v>
-          </cell>
-          <cell r="E52">
-            <v>63967</v>
-          </cell>
-          <cell r="F52">
-            <v>4976</v>
-          </cell>
-          <cell r="G52">
-            <v>362563</v>
-          </cell>
-          <cell r="H52">
-            <v>691340</v>
-          </cell>
-          <cell r="I52">
-            <v>273638.98600982496</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>8.6245876728067898</v>
-          </cell>
-          <cell r="D53">
-            <v>72615</v>
-          </cell>
-          <cell r="E53">
-            <v>12847</v>
-          </cell>
-          <cell r="F53">
-            <v>225</v>
-          </cell>
-          <cell r="G53">
-            <v>34108</v>
-          </cell>
-          <cell r="H53">
-            <v>69830</v>
-          </cell>
-          <cell r="I53">
-            <v>42756.704775880004</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2200,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2271,31 +1036,24 @@
         <v>3</v>
       </c>
       <c r="C3" s="6">
-        <f>'[1]Combined State Data'!C2</f>
         <v>8.1551146410574837</v>
       </c>
       <c r="D3" s="7">
-        <f>'[1]Combined State Data'!D2</f>
         <v>39791617</v>
       </c>
       <c r="E3" s="7">
-        <f>'[1]Combined State Data'!E2</f>
         <v>5763240</v>
       </c>
       <c r="F3" s="7">
-        <f>'[1]Combined State Data'!F2</f>
         <v>858898</v>
       </c>
       <c r="G3" s="7">
-        <f>'[1]Combined State Data'!G2</f>
         <v>22147552</v>
       </c>
       <c r="H3" s="7">
-        <f>'[1]Combined State Data'!H2</f>
         <v>45943530</v>
       </c>
       <c r="I3" s="7">
-        <f>'[1]Combined State Data'!I2</f>
         <v>17449233.72432097</v>
       </c>
     </row>
@@ -2307,31 +1065,24 @@
         <v>5</v>
       </c>
       <c r="C4" s="8">
-        <f>'[1]Combined State Data'!C3</f>
         <v>10.296384812560817</v>
       </c>
       <c r="D4" s="9">
-        <f>'[1]Combined State Data'!D3</f>
         <v>589238</v>
       </c>
       <c r="E4" s="9">
-        <f>'[1]Combined State Data'!E3</f>
         <v>50583</v>
       </c>
       <c r="F4" s="9">
-        <f>'[1]Combined State Data'!F3</f>
         <v>11408</v>
       </c>
       <c r="G4" s="9">
-        <f>'[1]Combined State Data'!G3</f>
         <v>457149</v>
       </c>
       <c r="H4" s="9">
-        <f>'[1]Combined State Data'!H3</f>
         <v>804990</v>
       </c>
       <c r="I4" s="9">
-        <f>'[1]Combined State Data'!I3</f>
         <v>367290.19932767906</v>
       </c>
     </row>
@@ -2343,31 +1094,24 @@
         <v>7</v>
       </c>
       <c r="C5" s="8">
-        <f>'[1]Combined State Data'!C4</f>
         <v>5.8464458379820208</v>
       </c>
       <c r="D5" s="9">
-        <f>'[1]Combined State Data'!D4</f>
         <v>122643</v>
       </c>
       <c r="E5" s="9">
-        <f>'[1]Combined State Data'!E4</f>
         <v>26407</v>
       </c>
       <c r="F5" s="9">
-        <f>'[1]Combined State Data'!F4</f>
         <v>589</v>
       </c>
       <c r="G5" s="9">
-        <f>'[1]Combined State Data'!G4</f>
         <v>35241</v>
       </c>
       <c r="H5" s="9">
-        <f>'[1]Combined State Data'!H4</f>
         <v>95360</v>
       </c>
       <c r="I5" s="9">
-        <f>'[1]Combined State Data'!I4</f>
         <v>59540.92870095851</v>
       </c>
     </row>
@@ -2379,31 +1123,24 @@
         <v>9</v>
       </c>
       <c r="C6" s="8">
-        <f>'[1]Combined State Data'!C5</f>
         <v>7.0569930517072335</v>
       </c>
       <c r="D6" s="9">
-        <f>'[1]Combined State Data'!D5</f>
         <v>900760</v>
       </c>
       <c r="E6" s="9">
-        <f>'[1]Combined State Data'!E5</f>
         <v>230744</v>
       </c>
       <c r="F6" s="9">
-        <f>'[1]Combined State Data'!F5</f>
         <v>12441</v>
       </c>
       <c r="G6" s="9">
-        <f>'[1]Combined State Data'!G5</f>
         <v>416189</v>
       </c>
       <c r="H6" s="9">
-        <f>'[1]Combined State Data'!H5</f>
         <v>1049830</v>
       </c>
       <c r="I6" s="9">
-        <f>'[1]Combined State Data'!I5</f>
         <v>416946.10464680003</v>
       </c>
     </row>
@@ -2415,31 +1152,24 @@
         <v>11</v>
       </c>
       <c r="C7" s="8">
-        <f>'[1]Combined State Data'!C6</f>
         <v>9.0076527862609126</v>
       </c>
       <c r="D7" s="9">
-        <f>'[1]Combined State Data'!D6</f>
         <v>429671</v>
       </c>
       <c r="E7" s="9">
-        <f>'[1]Combined State Data'!E6</f>
         <v>47489</v>
       </c>
       <c r="F7" s="9">
-        <f>'[1]Combined State Data'!F6</f>
         <v>4624</v>
       </c>
       <c r="G7" s="9">
-        <f>'[1]Combined State Data'!G6</f>
         <v>252056</v>
       </c>
       <c r="H7" s="9">
-        <f>'[1]Combined State Data'!H6</f>
         <v>541860</v>
       </c>
       <c r="I7" s="9">
-        <f>'[1]Combined State Data'!I6</f>
         <v>245604.34385391994</v>
       </c>
     </row>
@@ -2451,31 +1181,24 @@
         <v>13</v>
       </c>
       <c r="C8" s="8">
-        <f>'[1]Combined State Data'!C7</f>
         <v>6.7951913524294429</v>
       </c>
       <c r="D8" s="9">
-        <f>'[1]Combined State Data'!D7</f>
         <v>5865533</v>
       </c>
       <c r="E8" s="9">
-        <f>'[1]Combined State Data'!E7</f>
         <v>807210</v>
       </c>
       <c r="F8" s="9">
-        <f>'[1]Combined State Data'!F7</f>
         <v>111204</v>
       </c>
       <c r="G8" s="9">
-        <f>'[1]Combined State Data'!G7</f>
         <v>2211469</v>
       </c>
       <c r="H8" s="9">
-        <f>'[1]Combined State Data'!H7</f>
         <v>5687150</v>
       </c>
       <c r="I8" s="9">
-        <f>'[1]Combined State Data'!I7</f>
         <v>1164227.5224687003</v>
       </c>
     </row>
@@ -2487,31 +1210,24 @@
         <v>15</v>
       </c>
       <c r="C9" s="8">
-        <f>'[1]Combined State Data'!C8</f>
         <v>8.8475222737029586</v>
       </c>
       <c r="D9" s="9">
-        <f>'[1]Combined State Data'!D8</f>
         <v>635877</v>
       </c>
       <c r="E9" s="9">
-        <f>'[1]Combined State Data'!E8</f>
         <v>121168</v>
       </c>
       <c r="F9" s="9">
-        <f>'[1]Combined State Data'!F8</f>
         <v>10880</v>
       </c>
       <c r="G9" s="9">
-        <f>'[1]Combined State Data'!G8</f>
         <v>231785</v>
       </c>
       <c r="H9" s="9">
-        <f>'[1]Combined State Data'!H8</f>
         <v>721020</v>
       </c>
       <c r="I9" s="9">
-        <f>'[1]Combined State Data'!I8</f>
         <v>290873.76712209795</v>
       </c>
     </row>
@@ -2523,31 +1239,24 @@
         <v>17</v>
       </c>
       <c r="C10" s="8">
-        <f>'[1]Combined State Data'!C9</f>
         <v>7.9825374016178801</v>
       </c>
       <c r="D10" s="9">
-        <f>'[1]Combined State Data'!D9</f>
         <v>282987</v>
       </c>
       <c r="E10" s="9">
-        <f>'[1]Combined State Data'!E9</f>
         <v>34395</v>
       </c>
       <c r="F10" s="9">
-        <f>'[1]Combined State Data'!F9</f>
         <v>10728</v>
       </c>
       <c r="G10" s="9">
-        <f>'[1]Combined State Data'!G9</f>
         <v>228073</v>
       </c>
       <c r="H10" s="9">
-        <f>'[1]Combined State Data'!H9</f>
         <v>459820</v>
       </c>
       <c r="I10" s="9">
-        <f>'[1]Combined State Data'!I9</f>
         <v>139156.54777880001</v>
       </c>
     </row>
@@ -2559,31 +1268,24 @@
         <v>19</v>
       </c>
       <c r="C11" s="8">
-        <f>'[1]Combined State Data'!C10</f>
         <v>8.7575999508690057</v>
       </c>
       <c r="D11" s="9">
-        <f>'[1]Combined State Data'!D10</f>
         <v>71447</v>
       </c>
       <c r="E11" s="9">
-        <f>'[1]Combined State Data'!E10</f>
         <v>7265</v>
       </c>
       <c r="F11" s="9">
-        <f>'[1]Combined State Data'!F10</f>
         <v>2936</v>
       </c>
       <c r="G11" s="9">
-        <f>'[1]Combined State Data'!G10</f>
         <v>65866</v>
       </c>
       <c r="H11" s="9">
-        <f>'[1]Combined State Data'!H10</f>
         <v>106610</v>
       </c>
       <c r="I11" s="9">
-        <f>'[1]Combined State Data'!I10</f>
         <v>52510.089390700006</v>
       </c>
     </row>
@@ -2595,31 +1297,24 @@
         <v>21</v>
       </c>
       <c r="C12" s="8">
-        <f>'[1]Combined State Data'!C11</f>
         <v>10.503140683690541</v>
       </c>
       <c r="D12" s="9">
-        <f>'[1]Combined State Data'!D11</f>
         <v>34808</v>
       </c>
       <c r="E12" s="9">
-        <f>'[1]Combined State Data'!E11</f>
         <v>2300</v>
       </c>
       <c r="F12" s="9">
-        <f>'[1]Combined State Data'!F11</f>
         <v>14359</v>
       </c>
       <c r="G12" s="9">
-        <f>'[1]Combined State Data'!G11</f>
         <v>40214</v>
       </c>
       <c r="H12" s="9">
-        <f>'[1]Combined State Data'!H11</f>
         <v>91540</v>
       </c>
       <c r="I12" s="9">
-        <f>'[1]Combined State Data'!I11</f>
         <v>5764.5843048999996</v>
       </c>
     </row>
@@ -2631,31 +1326,24 @@
         <v>23</v>
       </c>
       <c r="C13" s="8">
-        <f>'[1]Combined State Data'!C12</f>
         <v>8.6892057296395624</v>
       </c>
       <c r="D13" s="9">
-        <f>'[1]Combined State Data'!D12</f>
         <v>3300073</v>
       </c>
       <c r="E13" s="9">
-        <f>'[1]Combined State Data'!E12</f>
         <v>475048</v>
       </c>
       <c r="F13" s="9">
-        <f>'[1]Combined State Data'!F12</f>
         <v>94306</v>
       </c>
       <c r="G13" s="9">
-        <f>'[1]Combined State Data'!G12</f>
         <v>1532619</v>
       </c>
       <c r="H13" s="9">
-        <f>'[1]Combined State Data'!H12</f>
         <v>2986720</v>
       </c>
       <c r="I13" s="9">
-        <f>'[1]Combined State Data'!I12</f>
         <v>1228210.399793799</v>
       </c>
     </row>
@@ -2667,31 +1355,24 @@
         <v>25</v>
       </c>
       <c r="C14" s="8">
-        <f>'[1]Combined State Data'!C13</f>
         <v>9.4982364342272678</v>
       </c>
       <c r="D14" s="9">
-        <f>'[1]Combined State Data'!D13</f>
         <v>1551768</v>
       </c>
       <c r="E14" s="9">
-        <f>'[1]Combined State Data'!E13</f>
         <v>240592</v>
       </c>
       <c r="F14" s="9">
-        <f>'[1]Combined State Data'!F13</f>
         <v>33207</v>
       </c>
       <c r="G14" s="9">
-        <f>'[1]Combined State Data'!G13</f>
         <v>740505</v>
       </c>
       <c r="H14" s="9">
-        <f>'[1]Combined State Data'!H13</f>
         <v>1679580</v>
       </c>
       <c r="I14" s="9">
-        <f>'[1]Combined State Data'!I13</f>
         <v>778932.66588510456</v>
       </c>
     </row>
@@ -2703,31 +1384,24 @@
         <v>27</v>
       </c>
       <c r="C15" s="8">
-        <f>'[1]Combined State Data'!C14</f>
         <v>8.1801953166019103</v>
       </c>
       <c r="D15" s="9">
-        <f>'[1]Combined State Data'!D14</f>
         <v>79987</v>
       </c>
       <c r="E15" s="9">
-        <f>'[1]Combined State Data'!E14</f>
         <v>12083</v>
       </c>
       <c r="F15" s="9">
-        <f>'[1]Combined State Data'!F14</f>
         <v>2161</v>
       </c>
       <c r="G15" s="9">
-        <f>'[1]Combined State Data'!G14</f>
         <v>86288</v>
       </c>
       <c r="H15" s="9">
-        <f>'[1]Combined State Data'!H14</f>
         <v>180330</v>
       </c>
       <c r="I15" s="9">
-        <f>'[1]Combined State Data'!I14</f>
         <v>78570.713674900006</v>
       </c>
     </row>
@@ -2739,31 +1413,24 @@
         <v>29</v>
       </c>
       <c r="C16" s="8">
-        <f>'[1]Combined State Data'!C15</f>
         <v>6.5359909541452152</v>
       </c>
       <c r="D16" s="9">
-        <f>'[1]Combined State Data'!D15</f>
         <v>214339</v>
       </c>
       <c r="E16" s="9">
-        <f>'[1]Combined State Data'!E15</f>
         <v>39681</v>
       </c>
       <c r="F16" s="9">
-        <f>'[1]Combined State Data'!F15</f>
         <v>728</v>
       </c>
       <c r="G16" s="9">
-        <f>'[1]Combined State Data'!G15</f>
         <v>98263</v>
       </c>
       <c r="H16" s="9">
-        <f>'[1]Combined State Data'!H15</f>
         <v>235630</v>
       </c>
       <c r="I16" s="9">
-        <f>'[1]Combined State Data'!I15</f>
         <v>107604.12652691999</v>
       </c>
     </row>
@@ -2775,31 +1442,24 @@
         <v>31</v>
       </c>
       <c r="C17" s="8">
-        <f>'[1]Combined State Data'!C16</f>
         <v>8.3619985128716987</v>
       </c>
       <c r="D17" s="9">
-        <f>'[1]Combined State Data'!D16</f>
         <v>1489797</v>
       </c>
       <c r="E17" s="9">
-        <f>'[1]Combined State Data'!E16</f>
         <v>117957</v>
       </c>
       <c r="F17" s="9">
-        <f>'[1]Combined State Data'!F16</f>
         <v>31221</v>
       </c>
       <c r="G17" s="9">
-        <f>'[1]Combined State Data'!G16</f>
         <v>867792</v>
       </c>
       <c r="H17" s="9">
-        <f>'[1]Combined State Data'!H16</f>
         <v>1694940</v>
       </c>
       <c r="I17" s="9">
-        <f>'[1]Combined State Data'!I16</f>
         <v>554467.19173016213</v>
       </c>
     </row>
@@ -2811,31 +1471,24 @@
         <v>33</v>
       </c>
       <c r="C18" s="8">
-        <f>'[1]Combined State Data'!C17</f>
         <v>8.2111534061086928</v>
       </c>
       <c r="D18" s="9">
-        <f>'[1]Combined State Data'!D17</f>
         <v>781005</v>
       </c>
       <c r="E18" s="9">
-        <f>'[1]Combined State Data'!E17</f>
         <v>142488</v>
       </c>
       <c r="F18" s="9">
-        <f>'[1]Combined State Data'!F17</f>
         <v>8422</v>
       </c>
       <c r="G18" s="9">
-        <f>'[1]Combined State Data'!G17</f>
         <v>511741</v>
       </c>
       <c r="H18" s="9">
-        <f>'[1]Combined State Data'!H17</f>
         <v>981420</v>
       </c>
       <c r="I18" s="9">
-        <f>'[1]Combined State Data'!I17</f>
         <v>409497.17824324063</v>
       </c>
     </row>
@@ -2847,31 +1500,24 @@
         <v>35</v>
       </c>
       <c r="C19" s="8">
-        <f>'[1]Combined State Data'!C18</f>
         <v>6.7620079451065367</v>
       </c>
       <c r="D19" s="9">
-        <f>'[1]Combined State Data'!D18</f>
         <v>222529</v>
       </c>
       <c r="E19" s="9">
-        <f>'[1]Combined State Data'!E18</f>
         <v>30326</v>
       </c>
       <c r="F19" s="9">
-        <f>'[1]Combined State Data'!F18</f>
         <v>1571</v>
       </c>
       <c r="G19" s="9">
-        <f>'[1]Combined State Data'!G18</f>
         <v>205408</v>
       </c>
       <c r="H19" s="9">
-        <f>'[1]Combined State Data'!H18</f>
         <v>380150</v>
       </c>
       <c r="I19" s="9">
-        <f>'[1]Combined State Data'!I18</f>
         <v>178560.30500134197</v>
       </c>
     </row>
@@ -2883,31 +1529,24 @@
         <v>37</v>
       </c>
       <c r="C20" s="8">
-        <f>'[1]Combined State Data'!C19</f>
         <v>7.1682383729258889</v>
       </c>
       <c r="D20" s="9">
-        <f>'[1]Combined State Data'!D19</f>
         <v>300936</v>
       </c>
       <c r="E20" s="9">
-        <f>'[1]Combined State Data'!E19</f>
         <v>52766</v>
       </c>
       <c r="F20" s="9">
-        <f>'[1]Combined State Data'!F19</f>
         <v>2588</v>
       </c>
       <c r="G20" s="9">
-        <f>'[1]Combined State Data'!G19</f>
         <v>197549</v>
       </c>
       <c r="H20" s="9">
-        <f>'[1]Combined State Data'!H19</f>
         <v>402040</v>
       </c>
       <c r="I20" s="9">
-        <f>'[1]Combined State Data'!I19</f>
         <v>236086.945867303</v>
       </c>
     </row>
@@ -2919,31 +1558,24 @@
         <v>39</v>
       </c>
       <c r="C21" s="8">
-        <f>'[1]Combined State Data'!C20</f>
         <v>9.0515733828981428</v>
       </c>
       <c r="D21" s="9">
-        <f>'[1]Combined State Data'!D20</f>
         <v>537818</v>
       </c>
       <c r="E21" s="9">
-        <f>'[1]Combined State Data'!E20</f>
         <v>62468</v>
       </c>
       <c r="F21" s="9">
-        <f>'[1]Combined State Data'!F20</f>
         <v>5114</v>
       </c>
       <c r="G21" s="9">
-        <f>'[1]Combined State Data'!G20</f>
         <v>380134</v>
       </c>
       <c r="H21" s="9">
-        <f>'[1]Combined State Data'!H20</f>
         <v>685130</v>
       </c>
       <c r="I21" s="9">
-        <f>'[1]Combined State Data'!I20</f>
         <v>209144.21502764826</v>
       </c>
     </row>
@@ -2955,31 +1587,24 @@
         <v>41</v>
       </c>
       <c r="C22" s="8">
-        <f>'[1]Combined State Data'!C21</f>
         <v>10.939613245317831</v>
       </c>
       <c r="D22" s="9">
-        <f>'[1]Combined State Data'!D21</f>
         <v>698706</v>
       </c>
       <c r="E22" s="9">
-        <f>'[1]Combined State Data'!E21</f>
         <v>64331</v>
       </c>
       <c r="F22" s="9">
-        <f>'[1]Combined State Data'!F21</f>
         <v>16772</v>
       </c>
       <c r="G22" s="9">
-        <f>'[1]Combined State Data'!G21</f>
         <v>400984</v>
       </c>
       <c r="H22" s="9">
-        <f>'[1]Combined State Data'!H21</f>
         <v>689440</v>
       </c>
       <c r="I22" s="9">
-        <f>'[1]Combined State Data'!I21</f>
         <v>440418.72741358</v>
       </c>
     </row>
@@ -2991,31 +1616,24 @@
         <v>43</v>
       </c>
       <c r="C23" s="8">
-        <f>'[1]Combined State Data'!C22</f>
         <v>6.5356060929299824</v>
       </c>
       <c r="D23" s="9">
-        <f>'[1]Combined State Data'!D22</f>
         <v>121113</v>
       </c>
       <c r="E23" s="9">
-        <f>'[1]Combined State Data'!E22</f>
         <v>13323</v>
       </c>
       <c r="F23" s="9">
-        <f>'[1]Combined State Data'!F22</f>
         <v>1131</v>
       </c>
       <c r="G23" s="9">
-        <f>'[1]Combined State Data'!G22</f>
         <v>99886</v>
       </c>
       <c r="H23" s="9">
-        <f>'[1]Combined State Data'!H22</f>
         <v>199400</v>
       </c>
       <c r="I23" s="9">
-        <f>'[1]Combined State Data'!I22</f>
         <v>49629.631419630015</v>
       </c>
     </row>
@@ -3027,31 +1645,24 @@
         <v>45</v>
       </c>
       <c r="C24" s="8">
-        <f>'[1]Combined State Data'!C23</f>
         <v>9.0455948489651679</v>
       </c>
       <c r="D24" s="9">
-        <f>'[1]Combined State Data'!D23</f>
         <v>536055</v>
       </c>
       <c r="E24" s="9">
-        <f>'[1]Combined State Data'!E23</f>
         <v>58350</v>
       </c>
       <c r="F24" s="9">
-        <f>'[1]Combined State Data'!F23</f>
         <v>29937</v>
       </c>
       <c r="G24" s="9">
-        <f>'[1]Combined State Data'!G23</f>
         <v>431683</v>
       </c>
       <c r="H24" s="9">
-        <f>'[1]Combined State Data'!H23</f>
         <v>696210</v>
       </c>
       <c r="I24" s="9">
-        <f>'[1]Combined State Data'!I23</f>
         <v>173287.7057058978</v>
       </c>
     </row>
@@ -3063,31 +1674,24 @@
         <v>47</v>
       </c>
       <c r="C25" s="8">
-        <f>'[1]Combined State Data'!C24</f>
         <v>7.7576952317642975</v>
       </c>
       <c r="D25" s="9">
-        <f>'[1]Combined State Data'!D24</f>
         <v>228987</v>
       </c>
       <c r="E25" s="9">
-        <f>'[1]Combined State Data'!E24</f>
         <v>19769</v>
       </c>
       <c r="F25" s="9">
-        <f>'[1]Combined State Data'!F24</f>
         <v>17357</v>
       </c>
       <c r="G25" s="9">
-        <f>'[1]Combined State Data'!G24</f>
         <v>442565</v>
       </c>
       <c r="H25" s="9">
-        <f>'[1]Combined State Data'!H24</f>
         <v>701750</v>
       </c>
       <c r="I25" s="9">
-        <f>'[1]Combined State Data'!I24</f>
         <v>264980.81395883998</v>
       </c>
     </row>
@@ -3099,31 +1703,24 @@
         <v>49</v>
       </c>
       <c r="C26" s="8">
-        <f>'[1]Combined State Data'!C25</f>
         <v>8.4112048401369712</v>
       </c>
       <c r="D26" s="9">
-        <f>'[1]Combined State Data'!D25</f>
         <v>1014360</v>
       </c>
       <c r="E26" s="9">
-        <f>'[1]Combined State Data'!E25</f>
         <v>100782</v>
       </c>
       <c r="F26" s="9">
-        <f>'[1]Combined State Data'!F25</f>
         <v>13850</v>
       </c>
       <c r="G26" s="9">
-        <f>'[1]Combined State Data'!G25</f>
         <v>785486</v>
       </c>
       <c r="H26" s="9">
-        <f>'[1]Combined State Data'!H25</f>
         <v>1511480</v>
       </c>
       <c r="I26" s="9">
-        <f>'[1]Combined State Data'!I25</f>
         <v>566021.57393890317</v>
       </c>
     </row>
@@ -3135,31 +1732,24 @@
         <v>51</v>
       </c>
       <c r="C27" s="8">
-        <f>'[1]Combined State Data'!C26</f>
         <v>6.5153596214701919</v>
       </c>
       <c r="D27" s="9">
-        <f>'[1]Combined State Data'!D26</f>
         <v>353641</v>
       </c>
       <c r="E27" s="9">
-        <f>'[1]Combined State Data'!E26</f>
         <v>72237</v>
       </c>
       <c r="F27" s="9">
-        <f>'[1]Combined State Data'!F26</f>
         <v>6445</v>
       </c>
       <c r="G27" s="9">
-        <f>'[1]Combined State Data'!G26</f>
         <v>295478</v>
       </c>
       <c r="H27" s="9">
-        <f>'[1]Combined State Data'!H26</f>
         <v>544720</v>
       </c>
       <c r="I27" s="9">
-        <f>'[1]Combined State Data'!I26</f>
         <v>311065.65284398</v>
       </c>
     </row>
@@ -3171,31 +1761,24 @@
         <v>53</v>
       </c>
       <c r="C28" s="8">
-        <f>'[1]Combined State Data'!C27</f>
         <v>12.053958363312061</v>
       </c>
       <c r="D28" s="9">
-        <f>'[1]Combined State Data'!D27</f>
         <v>440433</v>
       </c>
       <c r="E28" s="9">
-        <f>'[1]Combined State Data'!E27</f>
         <v>57185</v>
       </c>
       <c r="F28" s="9">
-        <f>'[1]Combined State Data'!F27</f>
         <v>8144</v>
       </c>
       <c r="G28" s="9">
-        <f>'[1]Combined State Data'!G27</f>
         <v>288397</v>
       </c>
       <c r="H28" s="9">
-        <f>'[1]Combined State Data'!H27</f>
         <v>612380</v>
       </c>
       <c r="I28" s="9">
-        <f>'[1]Combined State Data'!I27</f>
         <v>292297.64863224007</v>
       </c>
     </row>
@@ -3207,31 +1790,24 @@
         <v>55</v>
       </c>
       <c r="C29" s="8">
-        <f>'[1]Combined State Data'!C28</f>
         <v>8.0031910273254425</v>
       </c>
       <c r="D29" s="9">
-        <f>'[1]Combined State Data'!D28</f>
         <v>694827</v>
       </c>
       <c r="E29" s="9">
-        <f>'[1]Combined State Data'!E28</f>
         <v>106459</v>
       </c>
       <c r="F29" s="9">
-        <f>'[1]Combined State Data'!F28</f>
         <v>10931</v>
       </c>
       <c r="G29" s="9">
-        <f>'[1]Combined State Data'!G28</f>
         <v>469529</v>
       </c>
       <c r="H29" s="9">
-        <f>'[1]Combined State Data'!H28</f>
         <v>949140</v>
       </c>
       <c r="I29" s="9">
-        <f>'[1]Combined State Data'!I28</f>
         <v>372038.68468155188</v>
       </c>
     </row>
@@ -3243,31 +1819,24 @@
         <v>57</v>
       </c>
       <c r="C30" s="8">
-        <f>'[1]Combined State Data'!C29</f>
         <v>7.2880777959385243</v>
       </c>
       <c r="D30" s="9">
-        <f>'[1]Combined State Data'!D29</f>
         <v>153913</v>
       </c>
       <c r="E30" s="9">
-        <f>'[1]Combined State Data'!E29</f>
         <v>27408</v>
       </c>
       <c r="F30" s="9">
-        <f>'[1]Combined State Data'!F29</f>
         <v>306</v>
       </c>
       <c r="G30" s="9">
-        <f>'[1]Combined State Data'!G29</f>
         <v>56981</v>
       </c>
       <c r="H30" s="9">
-        <f>'[1]Combined State Data'!H29</f>
         <v>136870</v>
       </c>
       <c r="I30" s="9">
-        <f>'[1]Combined State Data'!I29</f>
         <v>88724.788289530014</v>
       </c>
     </row>
@@ -3279,31 +1848,24 @@
         <v>59</v>
       </c>
       <c r="C31" s="8">
-        <f>'[1]Combined State Data'!C30</f>
         <v>6.9793913251857171</v>
       </c>
       <c r="D31" s="9">
-        <f>'[1]Combined State Data'!D30</f>
         <v>172409</v>
       </c>
       <c r="E31" s="9">
-        <f>'[1]Combined State Data'!E30</f>
         <v>30816</v>
       </c>
       <c r="F31" s="9">
-        <f>'[1]Combined State Data'!F30</f>
         <v>1625</v>
       </c>
       <c r="G31" s="9">
-        <f>'[1]Combined State Data'!G30</f>
         <v>113113</v>
       </c>
       <c r="H31" s="9">
-        <f>'[1]Combined State Data'!H30</f>
         <v>227110</v>
       </c>
       <c r="I31" s="9">
-        <f>'[1]Combined State Data'!I30</f>
         <v>119055.41080689503</v>
       </c>
     </row>
@@ -3315,31 +1877,24 @@
         <v>61</v>
       </c>
       <c r="C32" s="8">
-        <f>'[1]Combined State Data'!C31</f>
         <v>8.166393532588744</v>
       </c>
       <c r="D32" s="9">
-        <f>'[1]Combined State Data'!D31</f>
         <v>475714</v>
       </c>
       <c r="E32" s="9">
-        <f>'[1]Combined State Data'!E31</f>
         <v>114866</v>
       </c>
       <c r="F32" s="9">
-        <f>'[1]Combined State Data'!F31</f>
         <v>6838</v>
       </c>
       <c r="G32" s="9">
-        <f>'[1]Combined State Data'!G31</f>
         <v>167398</v>
       </c>
       <c r="H32" s="9">
-        <f>'[1]Combined State Data'!H31</f>
         <v>416250</v>
       </c>
       <c r="I32" s="9">
-        <f>'[1]Combined State Data'!I31</f>
         <v>95123.034090367</v>
       </c>
     </row>
@@ -3351,31 +1906,24 @@
         <v>63</v>
       </c>
       <c r="C33" s="8">
-        <f>'[1]Combined State Data'!C32</f>
         <v>6.8256139525936694</v>
       </c>
       <c r="D33" s="9">
-        <f>'[1]Combined State Data'!D32</f>
         <v>126998</v>
       </c>
       <c r="E33" s="9">
-        <f>'[1]Combined State Data'!E32</f>
         <v>12403</v>
       </c>
       <c r="F33" s="9">
-        <f>'[1]Combined State Data'!F32</f>
         <v>1127</v>
       </c>
       <c r="G33" s="9">
-        <f>'[1]Combined State Data'!G32</f>
         <v>90181</v>
       </c>
       <c r="H33" s="9">
-        <f>'[1]Combined State Data'!H32</f>
         <v>131540</v>
       </c>
       <c r="I33" s="9">
-        <f>'[1]Combined State Data'!I32</f>
         <v>55080.604327584006</v>
       </c>
     </row>
@@ -3387,31 +1935,24 @@
         <v>65</v>
       </c>
       <c r="C34" s="8">
-        <f>'[1]Combined State Data'!C33</f>
         <v>8.4000716258018961</v>
       </c>
       <c r="D34" s="9">
-        <f>'[1]Combined State Data'!D33</f>
         <v>988974</v>
       </c>
       <c r="E34" s="9">
-        <f>'[1]Combined State Data'!E33</f>
         <v>113856</v>
       </c>
       <c r="F34" s="9">
-        <f>'[1]Combined State Data'!F33</f>
         <v>35377</v>
       </c>
       <c r="G34" s="9">
-        <f>'[1]Combined State Data'!G33</f>
         <v>590654</v>
       </c>
       <c r="H34" s="9">
-        <f>'[1]Combined State Data'!H33</f>
         <v>1094600</v>
       </c>
       <c r="I34" s="9">
-        <f>'[1]Combined State Data'!I33</f>
         <v>321812.44836938998</v>
       </c>
     </row>
@@ -3423,31 +1964,24 @@
         <v>67</v>
       </c>
       <c r="C35" s="8">
-        <f>'[1]Combined State Data'!C34</f>
         <v>8.6848943453785736</v>
       </c>
       <c r="D35" s="9">
-        <f>'[1]Combined State Data'!D34</f>
         <v>337120</v>
       </c>
       <c r="E35" s="9">
-        <f>'[1]Combined State Data'!E34</f>
         <v>46561</v>
       </c>
       <c r="F35" s="9">
-        <f>'[1]Combined State Data'!F34</f>
         <v>2384</v>
       </c>
       <c r="G35" s="9">
-        <f>'[1]Combined State Data'!G34</f>
         <v>118188</v>
       </c>
       <c r="H35" s="9">
-        <f>'[1]Combined State Data'!H34</f>
         <v>338230</v>
       </c>
       <c r="I35" s="9">
-        <f>'[1]Combined State Data'!I34</f>
         <v>271207.72802096995</v>
       </c>
     </row>
@@ -3459,31 +1993,24 @@
         <v>69</v>
       </c>
       <c r="C36" s="8">
-        <f>'[1]Combined State Data'!C35</f>
         <v>8.16037364388486</v>
       </c>
       <c r="D36" s="9">
-        <f>'[1]Combined State Data'!D35</f>
         <v>1909699</v>
       </c>
       <c r="E36" s="9">
-        <f>'[1]Combined State Data'!E35</f>
         <v>185233</v>
       </c>
       <c r="F36" s="9">
-        <f>'[1]Combined State Data'!F35</f>
         <v>129587</v>
       </c>
       <c r="G36" s="9">
-        <f>'[1]Combined State Data'!G35</f>
         <v>1370197</v>
       </c>
       <c r="H36" s="9">
-        <f>'[1]Combined State Data'!H35</f>
         <v>2605680</v>
       </c>
       <c r="I36" s="9">
-        <f>'[1]Combined State Data'!I35</f>
         <v>481881.20197454188</v>
       </c>
     </row>
@@ -3495,31 +2022,24 @@
         <v>71</v>
       </c>
       <c r="C37" s="8">
-        <f>'[1]Combined State Data'!C36</f>
         <v>9.0506904679794253</v>
       </c>
       <c r="D37" s="9">
-        <f>'[1]Combined State Data'!D36</f>
         <v>1387259</v>
       </c>
       <c r="E37" s="9">
-        <f>'[1]Combined State Data'!E36</f>
         <v>187605</v>
       </c>
       <c r="F37" s="9">
-        <f>'[1]Combined State Data'!F36</f>
         <v>24270</v>
       </c>
       <c r="G37" s="9">
-        <f>'[1]Combined State Data'!G36</f>
         <v>757882</v>
       </c>
       <c r="H37" s="9">
-        <f>'[1]Combined State Data'!H36</f>
         <v>1670830</v>
       </c>
       <c r="I37" s="9">
-        <f>'[1]Combined State Data'!I36</f>
         <v>622382.10630326613</v>
       </c>
     </row>
@@ -3531,31 +2051,24 @@
         <v>73</v>
       </c>
       <c r="C38" s="8">
-        <f>'[1]Combined State Data'!C37</f>
         <v>6.5933005116323971</v>
       </c>
       <c r="D38" s="9">
-        <f>'[1]Combined State Data'!D37</f>
         <v>59448</v>
       </c>
       <c r="E38" s="9">
-        <f>'[1]Combined State Data'!E37</f>
         <v>11652</v>
       </c>
       <c r="F38" s="9">
-        <f>'[1]Combined State Data'!F37</f>
         <v>0</v>
       </c>
       <c r="G38" s="9">
-        <f>'[1]Combined State Data'!G37</f>
         <v>42887</v>
       </c>
       <c r="H38" s="9">
-        <f>'[1]Combined State Data'!H37</f>
         <v>53160</v>
       </c>
       <c r="I38" s="9">
-        <f>'[1]Combined State Data'!I37</f>
         <v>60359.895293439993</v>
       </c>
     </row>
@@ -3567,31 +2080,24 @@
         <v>75</v>
       </c>
       <c r="C39" s="8">
-        <f>'[1]Combined State Data'!C38</f>
         <v>8.6381363815124068</v>
       </c>
       <c r="D39" s="9">
-        <f>'[1]Combined State Data'!D38</f>
         <v>1156227</v>
       </c>
       <c r="E39" s="9">
-        <f>'[1]Combined State Data'!E38</f>
         <v>154867</v>
       </c>
       <c r="F39" s="9">
-        <f>'[1]Combined State Data'!F38</f>
         <v>17010</v>
       </c>
       <c r="G39" s="9">
-        <f>'[1]Combined State Data'!G38</f>
         <v>956540</v>
       </c>
       <c r="H39" s="9">
-        <f>'[1]Combined State Data'!H38</f>
         <v>1825610</v>
       </c>
       <c r="I39" s="9">
-        <f>'[1]Combined State Data'!I38</f>
         <v>681167.85500171687</v>
       </c>
     </row>
@@ -3603,31 +2109,24 @@
         <v>77</v>
       </c>
       <c r="C40" s="8">
-        <f>'[1]Combined State Data'!C39</f>
         <v>8.2853931449737868</v>
       </c>
       <c r="D40" s="9">
-        <f>'[1]Combined State Data'!D39</f>
         <v>589955</v>
       </c>
       <c r="E40" s="9">
-        <f>'[1]Combined State Data'!E39</f>
         <v>104152</v>
       </c>
       <c r="F40" s="9">
-        <f>'[1]Combined State Data'!F39</f>
         <v>4613</v>
       </c>
       <c r="G40" s="9">
-        <f>'[1]Combined State Data'!G39</f>
         <v>315576</v>
       </c>
       <c r="H40" s="9">
-        <f>'[1]Combined State Data'!H39</f>
         <v>606850</v>
       </c>
       <c r="I40" s="9">
-        <f>'[1]Combined State Data'!I39</f>
         <v>335906.28719210596</v>
       </c>
     </row>
@@ -3639,31 +2138,24 @@
         <v>79</v>
       </c>
       <c r="C41" s="8">
-        <f>'[1]Combined State Data'!C40</f>
         <v>6.1497358637044588</v>
       </c>
       <c r="D41" s="9">
-        <f>'[1]Combined State Data'!D40</f>
         <v>511284</v>
       </c>
       <c r="E41" s="9">
-        <f>'[1]Combined State Data'!E40</f>
         <v>61160</v>
       </c>
       <c r="F41" s="9">
-        <f>'[1]Combined State Data'!F40</f>
         <v>5091</v>
       </c>
       <c r="G41" s="9">
-        <f>'[1]Combined State Data'!G40</f>
         <v>253446</v>
       </c>
       <c r="H41" s="9">
-        <f>'[1]Combined State Data'!H40</f>
         <v>582680</v>
       </c>
       <c r="I41" s="9">
-        <f>'[1]Combined State Data'!I40</f>
         <v>195215.23137047002</v>
       </c>
     </row>
@@ -3675,31 +2167,24 @@
         <v>81</v>
       </c>
       <c r="C42" s="8">
-        <f>'[1]Combined State Data'!C41</f>
         <v>8.3145906509898388</v>
       </c>
       <c r="D42" s="9">
-        <f>'[1]Combined State Data'!D41</f>
         <v>1074244</v>
       </c>
       <c r="E42" s="9">
-        <f>'[1]Combined State Data'!E41</f>
         <v>150984</v>
       </c>
       <c r="F42" s="9">
-        <f>'[1]Combined State Data'!F41</f>
         <v>31311</v>
       </c>
       <c r="G42" s="9">
-        <f>'[1]Combined State Data'!G41</f>
         <v>987259</v>
       </c>
       <c r="H42" s="9">
-        <f>'[1]Combined State Data'!H41</f>
         <v>1724330</v>
       </c>
       <c r="I42" s="9">
-        <f>'[1]Combined State Data'!I41</f>
         <v>568275.20316947694</v>
       </c>
     </row>
@@ -3711,31 +2196,24 @@
         <v>83</v>
       </c>
       <c r="C43" s="8">
-        <f>'[1]Combined State Data'!C42</f>
         <v>7.8787356604795429</v>
       </c>
       <c r="D43" s="9">
-        <f>'[1]Combined State Data'!D42</f>
         <v>99563</v>
       </c>
       <c r="E43" s="9">
-        <f>'[1]Combined State Data'!E42</f>
         <v>12113</v>
       </c>
       <c r="F43" s="9">
-        <f>'[1]Combined State Data'!F42</f>
         <v>1950</v>
       </c>
       <c r="G43" s="9">
-        <f>'[1]Combined State Data'!G42</f>
         <v>70796</v>
       </c>
       <c r="H43" s="9">
-        <f>'[1]Combined State Data'!H42</f>
         <v>157540</v>
       </c>
       <c r="I43" s="9">
-        <f>'[1]Combined State Data'!I42</f>
         <v>60179.096152500002</v>
       </c>
     </row>
@@ -3747,31 +2225,24 @@
         <v>85</v>
       </c>
       <c r="C44" s="8">
-        <f>'[1]Combined State Data'!C43</f>
         <v>9.9251100798746688</v>
       </c>
       <c r="D44" s="9">
-        <f>'[1]Combined State Data'!D43</f>
         <v>681907</v>
       </c>
       <c r="E44" s="9">
-        <f>'[1]Combined State Data'!E43</f>
         <v>98376</v>
       </c>
       <c r="F44" s="9">
-        <f>'[1]Combined State Data'!F43</f>
         <v>13884</v>
       </c>
       <c r="G44" s="9">
-        <f>'[1]Combined State Data'!G43</f>
         <v>415634</v>
       </c>
       <c r="H44" s="9">
-        <f>'[1]Combined State Data'!H43</f>
         <v>769170</v>
       </c>
       <c r="I44" s="9">
-        <f>'[1]Combined State Data'!I43</f>
         <v>360395.69892697805</v>
       </c>
     </row>
@@ -3783,31 +2254,24 @@
         <v>87</v>
       </c>
       <c r="C45" s="8">
-        <f>'[1]Combined State Data'!C44</f>
         <v>6.5673597127538272</v>
       </c>
       <c r="D45" s="9">
-        <f>'[1]Combined State Data'!D44</f>
         <v>81958</v>
       </c>
       <c r="E45" s="9">
-        <f>'[1]Combined State Data'!E44</f>
         <v>13359</v>
       </c>
       <c r="F45" s="9">
-        <f>'[1]Combined State Data'!F44</f>
         <v>0</v>
       </c>
       <c r="G45" s="9">
-        <f>'[1]Combined State Data'!G44</f>
         <v>52029</v>
       </c>
       <c r="H45" s="9">
-        <f>'[1]Combined State Data'!H44</f>
         <v>99320</v>
       </c>
       <c r="I45" s="9">
-        <f>'[1]Combined State Data'!I44</f>
         <v>86909.830488939988</v>
       </c>
     </row>
@@ -3819,31 +2283,24 @@
         <v>89</v>
       </c>
       <c r="C46" s="8">
-        <f>'[1]Combined State Data'!C45</f>
         <v>9.2403799743615913</v>
       </c>
       <c r="D46" s="9">
-        <f>'[1]Combined State Data'!D45</f>
         <v>794184</v>
       </c>
       <c r="E46" s="9">
-        <f>'[1]Combined State Data'!E45</f>
         <v>90386</v>
       </c>
       <c r="F46" s="9">
-        <f>'[1]Combined State Data'!F45</f>
         <v>15801</v>
       </c>
       <c r="G46" s="9">
-        <f>'[1]Combined State Data'!G45</f>
         <v>568633</v>
       </c>
       <c r="H46" s="9">
-        <f>'[1]Combined State Data'!H45</f>
         <v>1017910</v>
       </c>
       <c r="I46" s="9">
-        <f>'[1]Combined State Data'!I45</f>
         <v>480355.06404412392</v>
       </c>
     </row>
@@ -3855,31 +2312,24 @@
         <v>91</v>
       </c>
       <c r="C47" s="8">
-        <f>'[1]Combined State Data'!C46</f>
         <v>8.420484557787649</v>
       </c>
       <c r="D47" s="9">
-        <f>'[1]Combined State Data'!D46</f>
         <v>4860358</v>
       </c>
       <c r="E47" s="9">
-        <f>'[1]Combined State Data'!E46</f>
         <v>946323</v>
       </c>
       <c r="F47" s="9">
-        <f>'[1]Combined State Data'!F46</f>
         <v>64175</v>
       </c>
       <c r="G47" s="9">
-        <f>'[1]Combined State Data'!G46</f>
         <v>1682030</v>
       </c>
       <c r="H47" s="9">
-        <f>'[1]Combined State Data'!H46</f>
         <v>4405870</v>
       </c>
       <c r="I47" s="9">
-        <f>'[1]Combined State Data'!I46</f>
         <v>2339034.4222448575</v>
       </c>
     </row>
@@ -3891,31 +2341,24 @@
         <v>93</v>
       </c>
       <c r="C48" s="8">
-        <f>'[1]Combined State Data'!C47</f>
         <v>6.8745003996802554</v>
       </c>
       <c r="D48" s="9">
-        <f>'[1]Combined State Data'!D47</f>
         <v>312131</v>
       </c>
       <c r="E48" s="9">
-        <f>'[1]Combined State Data'!E47</f>
         <v>93575</v>
       </c>
       <c r="F48" s="9">
-        <f>'[1]Combined State Data'!F47</f>
         <v>2311</v>
       </c>
       <c r="G48" s="9">
-        <f>'[1]Combined State Data'!G47</f>
         <v>129266</v>
       </c>
       <c r="H48" s="9">
-        <f>'[1]Combined State Data'!H47</f>
         <v>409130</v>
       </c>
       <c r="I48" s="9">
-        <f>'[1]Combined State Data'!I47</f>
         <v>144690.95333083798</v>
       </c>
     </row>
@@ -3927,31 +2370,24 @@
         <v>95</v>
       </c>
       <c r="C49" s="8">
-        <f>'[1]Combined State Data'!C48</f>
         <v>6.5335131058753628</v>
       </c>
       <c r="D49" s="9">
-        <f>'[1]Combined State Data'!D48</f>
         <v>36333</v>
       </c>
       <c r="E49" s="9">
-        <f>'[1]Combined State Data'!E48</f>
         <v>4146</v>
       </c>
       <c r="F49" s="9">
-        <f>'[1]Combined State Data'!F48</f>
         <v>394</v>
       </c>
       <c r="G49" s="9">
-        <f>'[1]Combined State Data'!G48</f>
         <v>36265</v>
       </c>
       <c r="H49" s="9">
-        <f>'[1]Combined State Data'!H48</f>
         <v>78480</v>
       </c>
       <c r="I49" s="9">
-        <f>'[1]Combined State Data'!I48</f>
         <v>19530.850951073</v>
       </c>
     </row>
@@ -3963,31 +2399,24 @@
         <v>97</v>
       </c>
       <c r="C50" s="8">
-        <f>'[1]Combined State Data'!C49</f>
         <v>8.2642709345961887</v>
       </c>
       <c r="D50" s="9">
-        <f>'[1]Combined State Data'!D49</f>
         <v>878267</v>
       </c>
       <c r="E50" s="9">
-        <f>'[1]Combined State Data'!E49</f>
         <v>115183</v>
       </c>
       <c r="F50" s="9">
-        <f>'[1]Combined State Data'!F49</f>
         <v>20526</v>
       </c>
       <c r="G50" s="9">
-        <f>'[1]Combined State Data'!G49</f>
         <v>587305</v>
       </c>
       <c r="H50" s="9">
-        <f>'[1]Combined State Data'!H49</f>
         <v>904040</v>
       </c>
       <c r="I50" s="9">
-        <f>'[1]Combined State Data'!I49</f>
         <v>295609.68773008377</v>
       </c>
     </row>
@@ -3999,31 +2428,24 @@
         <v>99</v>
       </c>
       <c r="C51" s="8">
-        <f>'[1]Combined State Data'!C50</f>
         <v>6.2886671673282546</v>
       </c>
       <c r="D51" s="9">
-        <f>'[1]Combined State Data'!D50</f>
         <v>843276</v>
       </c>
       <c r="E51" s="9">
-        <f>'[1]Combined State Data'!E50</f>
         <v>100148</v>
       </c>
       <c r="F51" s="9">
-        <f>'[1]Combined State Data'!F50</f>
         <v>10635</v>
       </c>
       <c r="G51" s="9">
-        <f>'[1]Combined State Data'!G50</f>
         <v>432666</v>
       </c>
       <c r="H51" s="9">
-        <f>'[1]Combined State Data'!H50</f>
         <v>970700</v>
       </c>
       <c r="I51" s="9">
-        <f>'[1]Combined State Data'!I50</f>
         <v>340445.17690891272</v>
       </c>
     </row>
@@ -4035,31 +2457,24 @@
         <v>101</v>
       </c>
       <c r="C52" s="8">
-        <f>'[1]Combined State Data'!C51</f>
         <v>9.4163872235206441</v>
       </c>
       <c r="D52" s="9">
-        <f>'[1]Combined State Data'!D51</f>
         <v>248168</v>
       </c>
       <c r="E52" s="9">
-        <f>'[1]Combined State Data'!E51</f>
         <v>17848</v>
       </c>
       <c r="F52" s="9">
-        <f>'[1]Combined State Data'!F51</f>
         <v>1428</v>
       </c>
       <c r="G52" s="9">
-        <f>'[1]Combined State Data'!G51</f>
         <v>183606</v>
       </c>
       <c r="H52" s="9">
-        <f>'[1]Combined State Data'!H51</f>
         <v>267820</v>
       </c>
       <c r="I52" s="9">
-        <f>'[1]Combined State Data'!I51</f>
         <v>116767.19060761074</v>
       </c>
     </row>
@@ -4071,31 +2486,24 @@
         <v>103</v>
       </c>
       <c r="C53" s="8">
-        <f>'[1]Combined State Data'!C52</f>
         <v>7.0503374555283269</v>
       </c>
       <c r="D53" s="9">
-        <f>'[1]Combined State Data'!D52</f>
         <v>440275</v>
       </c>
       <c r="E53" s="9">
-        <f>'[1]Combined State Data'!E52</f>
         <v>63967</v>
       </c>
       <c r="F53" s="9">
-        <f>'[1]Combined State Data'!F52</f>
         <v>4976</v>
       </c>
       <c r="G53" s="9">
-        <f>'[1]Combined State Data'!G52</f>
         <v>362563</v>
       </c>
       <c r="H53" s="9">
-        <f>'[1]Combined State Data'!H52</f>
         <v>691340</v>
       </c>
       <c r="I53" s="9">
-        <f>'[1]Combined State Data'!I52</f>
         <v>273638.98600982496</v>
       </c>
     </row>
@@ -4107,31 +2515,24 @@
         <v>105</v>
       </c>
       <c r="C54" s="8">
-        <f>'[1]Combined State Data'!C53</f>
         <v>8.6245876728067898</v>
       </c>
       <c r="D54" s="9">
-        <f>'[1]Combined State Data'!D53</f>
         <v>72615</v>
       </c>
       <c r="E54" s="9">
-        <f>'[1]Combined State Data'!E53</f>
         <v>12847</v>
       </c>
       <c r="F54" s="9">
-        <f>'[1]Combined State Data'!F53</f>
         <v>225</v>
       </c>
       <c r="G54" s="10">
-        <f>'[1]Combined State Data'!G53</f>
         <v>34108</v>
       </c>
       <c r="H54" s="10">
-        <f>'[1]Combined State Data'!H53</f>
         <v>69830</v>
       </c>
       <c r="I54" s="10">
-        <f>'[1]Combined State Data'!I53</f>
         <v>42756.704775880004</v>
       </c>
     </row>
@@ -4204,53 +2605,20 @@
       <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="16"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="16"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="16"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="19"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A55:I64"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A55:I61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
